--- a/biology/Botanique/Bois_balai/Bois_balai.xlsx
+++ b/biology/Botanique/Bois_balai/Bois_balai.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Turraea laciniosa
-Le bois balai (Turraea laciniosa[1]) est une espèce de la famille des Meliaceae, endémique de l'île Rodrigues, dans l'océan Indien. Elle est menacée de disparition.
+Le bois balai (Turraea laciniosa) est une espèce de la famille des Meliaceae, endémique de l'île Rodrigues, dans l'océan Indien. Elle est menacée de disparition.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les populations les plus importantes se trouvent à Grande Montagne, Mont Malartic et Mont Cimetière. On trouve quelques individus isolés à Rivière Baleine et Saint d'Or.
 </t>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le bois balai est un arbrisseau ou arbuste atteignant six mètres de hauteur. Ses fleurs sont d'un blanc crème.
 </t>
@@ -574,7 +590,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Une décoction à partir de l'écorce sert à traiter les migraines et les maux de tête.
 </t>
@@ -605,7 +623,9 @@
           <t>Synonyme</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Quivisia laciniata Balf.f.</t>
         </is>
